--- a/アプリ会話概要.xlsx
+++ b/アプリ会話概要.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lightbox\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9229BE8B-63EB-4C5E-A507-668E88B2C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0886FE-3C42-43DD-9EB4-8955FA403251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8731B15-5499-4CF1-B59E-87CD1ADA8D7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A8731B15-5499-4CF1-B59E-87CD1ADA8D7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v01" sheetId="1" r:id="rId1"/>
+    <sheet name="v02" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>name="scode"</t>
     <phoneticPr fontId="1"/>
@@ -96,6 +97,188 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxlength="4"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pattern="[0-9]+"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onsubmit="return check()"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function check()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ onsubmit は確認・更新両方で呼ばれる</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員コードが4桁以外はエラー</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_POST["message"] : 新規の場合のメッセージ</t>
+    <rPh sb="20" eb="22">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタンの右横に表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この段階で実装</t>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新後に、$_POST をクリア</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規処理を実装( insert )</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check() 関数で存在チェックして</t>
+    <rPh sb="8" eb="10">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update() か insert() を呼び出す</t>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[REQUEST_METHOD]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[SCRIPT_NAME]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[PHP_SELF]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 重要な $_SERVER 変数</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP から header('Location: URL'); で GET でサーバが呼ばれる</t>
+    <rPh sb="43" eb="44">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ METHOD="POST" での終了から GET に置き換えるため</t>
+    <rPh sb="18" eb="20">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +303,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,9 +321,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -143,8 +344,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,6 +1018,684 @@
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="2"/>
           <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="5962650"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA768FA-201A-4DD0-B988-D67916AABD07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="409575"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>社員コード入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BE666A-8854-4C59-B208-4CFBB9075E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1600200"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>確認ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>会話</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7B8762-6EC2-46CC-A07A-0E40492EBE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="1143000"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A19876A-3731-477E-90BD-AF6F56A1C6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="2838450"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>明細表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BF4F34-A103-4D60-BB40-CE9DE8338A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="2333625"/>
+          <a:ext cx="0" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CA3FA4-A490-4986-A033-F30F00811F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="4019550"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>更新ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>会話</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8744ACA2-9FBC-4E8C-B217-96FED8511B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="3571875"/>
+          <a:ext cx="0" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73682BE-4052-41B4-8D1B-878C5C62B62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="5229225"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>更新処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982A32AB-6E10-4332-8286-90743C6A1170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="4752975"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34A17BB-FA30-47D2-AC28-2AEC7CC22C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="6477000"/>
+          <a:ext cx="2228850" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>初期画面表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F22A44D-12D5-4F5C-AF90-E656A788933F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1141,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF9C070-DCB5-4150-8A70-1EFD90DF1564}">
   <dimension ref="G3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1207,4 +2095,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214B01D-B66C-4DBC-B96A-5A6D4792FF6E}">
+  <dimension ref="G1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="N23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="N24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>